--- a/packages/exam_type/data/Exam Types.xlsx
+++ b/packages/exam_type/data/Exam Types.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10202"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26821"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://partnershealthcare.sharepoint.com/sites/CommonAnatomicLocationIndex/Shared Documents/General/Anatomic Locations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1097" documentId="8_{D65B4BF9-96EA-484E-88A0-7BC4370BC6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC39923F-ADA4-CD45-8DBB-FBA1BECFDE4D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3197370A-1987-40D2-8045-A256799E2499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14000" yWindow="5480" windowWidth="44120" windowHeight="26420" activeTab="2" xr2:uid="{3C38A5A0-623C-604F-AF7D-830DF85D47EE}"/>
+    <workbookView xWindow="14000" yWindow="5480" windowWidth="44120" windowHeight="26420" firstSheet="2" activeTab="1" xr2:uid="{3C38A5A0-623C-604F-AF7D-830DF85D47EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Exam Types" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="JSON Output" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +30,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="309">
   <si>
     <t>LOINC ID</t>
   </si>
@@ -55,6 +55,9 @@
     <t>Lateral</t>
   </si>
   <si>
+    <t>Contrast</t>
+  </si>
+  <si>
     <t>Focused Body Parts</t>
   </si>
   <si>
@@ -88,6 +91,9 @@
     <t>CT</t>
   </si>
   <si>
+    <t>W</t>
+  </si>
+  <si>
     <t>RID1243</t>
   </si>
   <si>
@@ -106,6 +112,9 @@
     <t>RPID16</t>
   </si>
   <si>
+    <t>WO</t>
+  </si>
+  <si>
     <t>CT.TH.CHEST-</t>
   </si>
   <si>
@@ -157,6 +166,9 @@
     <t>RPID6</t>
   </si>
   <si>
+    <t>WWO</t>
+  </si>
+  <si>
     <t>RID580 RID581 RID35844 RID879</t>
   </si>
   <si>
@@ -871,7 +883,7 @@
     <t>upper_chest</t>
   </si>
   <si>
-    <t>RID2468 RID1326 RID1302 RID43895 RID43896 RID1362 RID1303 RID1327 RID1517_RID5825 RID1517_RID5824 RID28591_RID6151_RID5825 RID28591_RID6151_RID5824 RID28591_RID6152_RID5825 RID28591_RID6152_RID5824 RID28591_RID6153_RID5825 RID28591_RID6153_RID5824 RID28591_RID6154_RID5825 RID28591_RID6154_RID5824 RID884 RID43071 RID43072 RID43073 RID43074 RID43052 RID45053 RID43045 RID43046 RID32770 RID32771 RID43952 RID43953 RID29928 RID29929 RID29930 RID29931 RID29932 RID29933 RID29940 RID29941 RID29942 RID29943 RID29944 RID29945 RID29946 RID29947 RID29948 RID39518 RID581 RID582 RID1011 RID1011_RID5825 RID1011_5824 RID1248 RID2468 RID95 RID34918 RID1250 RID1275 RID43896 RID2476 RID1362 RID43895 RID2473 RID773 RID1010 RID1247 RID1517 RID29198 RID29199 RID29200 RID29201 RID7694 RID7201 RID27716 RID27717 RID44771 RID44772 RID44773 RID2493 RID2496 RID2502 RID2500 RID43054 RID43055 RID1937 RID43045 RID43046 RID32769 RID823 RID44769 RID44770 RID19173 RID19174 RID19175 RID43951 RID12187 RID27700 RID27701 RID28584 RID1484 RID1486 RID1488 RID1465 RID1467 RID1469 RID1482 RID580 RID35844 RID1854 RID41740 RID41741</t>
+    <t>RID2468 RID1326 RID1302 RID43895 RID43896 RID1362 RID1303 RID1327 RID1517_RID5825 RID1517_RID5824 RID28591_RID6151_RID5825 RID28591_RID6151_RID5824 RID28591_RID6152_RID5825 RID28591_RID6152_RID5824 RID28591_RID6153_RID5825 RID28591_RID6153_RID5824 RID28591_RID6154_RID5825 RID28591_RID6154_RID5824 RID884 RID43071 RID43072 RID43073 RID43074 RID43052 RID45053 RID43045 RID43046 RID32770 RID32771 RID43952 RID43953 RID29928 RID29929 RID29930 RID29931 RID29932 RID29933 RID29940 RID29941 RID29942 RID29943 RID29944 RID29945 RID29946 RID29947 RID29948 RID39518 RID581 RID582 RID1011 RID1011_RID5825 RID1011_RID5824 RID1248 RID2468 RID95 RID34918 RID1250 RID1275 RID43896 RID2476 RID1362 RID43895 RID2473 RID773 RID1010 RID1247 RID1517 RID29198 RID29199 RID29200 RID29201 RID7694 RID7201 RID27716 RID27717 RID44771 RID44772 RID44773 RID2493 RID2496 RID2502 RID2500 RID43054 RID43055 RID1937 RID43045 RID43046 RID32769 RID823 RID44769 RID44770 RID19173 RID19174 RID19175 RID43951 RID12187 RID27700 RID27701 RID28584 RID1484 RID1486 RID1488 RID1465 RID1467 RID1469 RID1482 RID580 RID35844 RID1854 RID41740 RID41741</t>
   </si>
   <si>
     <t>RID2468 RID1326 RID43896 RID1362 RID1327 RID1517_RID5824 RID28591_RID6151_RID5824 RID28591_RID6152_RID5824 RID28591_RID6153_RID5824 RID28591_RID6154_RID5824 RID884 RID43072 RID43074 RID45053 RID43046 RID32771 RID43953 RID29930 RID29942 RID29948</t>
@@ -956,7 +968,7 @@
     <t>RID28600 RID648 RID665 RID804 RID791 RID585 RID774 RID236393 RID36444 RID44717 RID585_RID5824 RID44621 RID36392 RID36443 RID44716 RID585_RID5825 RID44620</t>
   </si>
   <si>
-    <t>RID584  RID585 RID684 RID584_5824 RID585_RID5824 RID684_RID5824 RID584_5825 RID585_RID5825 RID684_RID5825</t>
+    <t>RID584  RID585 RID684 RID584_RID5824 RID585_RID5824 RID684_RID5824 RID584_5825 RID585_RID5825 RID684_RID5825</t>
   </si>
   <si>
     <t>RID905 RID906 RID939 RID1178 RID37860 RID37859 RID927 RID1208 RID34469 RID34470 RID1209 RID37993 RID37994 RID1184 RID936 RID1212 RID1211 RID909 RID916 RID918 RID1179  RID1180 RID1181 RID1182 RID944 RID944_RID5824 RID944_RID5825 RID1193</t>
@@ -965,7 +977,7 @@
     <t>RID949 RID950 RID957 RID1195 RID958 RID961 RID1199 RID959 RID962 RID1201 RID971 RID1205 RID967 RID1207 RID964 RID1206 RID972 RID970</t>
   </si>
   <si>
-    <t>RID949_5824 RID950_5824 RID957_5824 RID1195_5824 RID958_5824 RID961_5824 RID1199_5824 RID959_5824 RID962_5824 RID1201_5824 RID971_5824 RID1205_5824 RID967_5824 RID1207_5824 RID964_5824 RID1206_5824 RID972_5824 RID970_5824</t>
+    <t>RID949_RID5824 RID950_RID5824 RID957_RID5824 RID1195_RID5824 RID958_RID5824 RID961_RID5824 RID1199_RID5824 RID959_RID5824 RID962_RID5824 RID1201_RID5824 RID971_RID5824 RID1205_RID5824 RID967_RID5824 RID1207_RID5824 RID964_RID5824 RID1206_RID5824 RID972_RID5824 RID970_RID5824</t>
   </si>
   <si>
     <t>RID949_5825 RID950_5825 RID957_5825 RID1195_5825 RID958_5825 RID961_5825 RID1199_5825 RID959_5825 RID962_5825 RID1201_5825 RID971_5825 RID1205_5825 RID967_5825 RID1207_5825 RID964_5825 RID1206_5825 RID972_5825 RID970_5825</t>
@@ -981,7 +993,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1003,12 +1015,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1046,12 +1052,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF444444"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1097,7 +1097,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1105,13 +1105,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1287,10 +1285,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1590,22 +1584,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E30763D-D4C3-3A4A-9BBE-7430A7C9CCD2}">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="2" max="2" width="51.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="11" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="51.625" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="6" width="9.5" customWidth="1"/>
+    <col min="7" max="12" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1642,1635 +1636,1792 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75">
+      <c r="A7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="L3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75">
+      <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75">
       <c r="A17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" t="s">
-        <v>86</v>
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>89</v>
       </c>
       <c r="I18" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="L18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75">
       <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75">
+      <c r="A20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
         <v>90</v>
       </c>
-      <c r="B19" t="s">
+      <c r="H20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
         <v>91</v>
       </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>92</v>
-      </c>
-      <c r="J19" t="s">
-        <v>88</v>
-      </c>
-      <c r="K19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="H21" t="s">
         <v>93</v>
       </c>
-      <c r="B20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:12" ht="15.75">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="H22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75">
+      <c r="A23" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E23" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F23" t="s">
-        <v>105</v>
+      <c r="F23" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
-      </c>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75">
+      <c r="A24" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E24" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F24" t="s">
-        <v>108</v>
+      <c r="F24" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>109</v>
-      </c>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="5" t="s">
         <v>112</v>
       </c>
+      <c r="H24" t="s">
+        <v>113</v>
+      </c>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75">
+      <c r="A25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I25" t="s">
-        <v>116</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="K25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="J25" t="s">
         <v>120</v>
       </c>
+      <c r="K25" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75">
+      <c r="A26" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E26" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F26" t="s">
-        <v>81</v>
+      <c r="F26" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>124</v>
+        <v>85</v>
+      </c>
+      <c r="H26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75">
+      <c r="A27" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E27" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F27" t="s">
-        <v>125</v>
+      <c r="F27" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="5" t="s">
         <v>129</v>
       </c>
+      <c r="H27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75">
+      <c r="A28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" t="s">
+        <v>135</v>
+      </c>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75">
+      <c r="A29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s">
+        <v>140</v>
+      </c>
+      <c r="H29" t="s">
+        <v>135</v>
+      </c>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75">
+      <c r="A30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E30" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" t="s">
+        <v>140</v>
+      </c>
+      <c r="H30" t="s">
+        <v>135</v>
+      </c>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75">
+      <c r="A31" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" t="s">
         <v>130</v>
       </c>
-      <c r="G28" t="s">
-        <v>131</v>
-      </c>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E29" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F29" t="s">
-        <v>136</v>
-      </c>
-      <c r="G29" t="s">
-        <v>131</v>
-      </c>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75">
+      <c r="A32" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E30" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>136</v>
-      </c>
-      <c r="G30" t="s">
-        <v>131</v>
-      </c>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E31" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="E32" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" t="s">
+        <v>130</v>
+      </c>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75">
+      <c r="A33" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" t="s">
+        <v>130</v>
+      </c>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75">
+      <c r="A34" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H34" t="s">
+        <v>30</v>
+      </c>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75">
+      <c r="A35" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H35" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75">
+      <c r="A36" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s">
+        <v>104</v>
+      </c>
+      <c r="H36" t="s">
+        <v>105</v>
+      </c>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75">
+      <c r="A37" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37" t="s">
+        <v>105</v>
+      </c>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.75">
+      <c r="A38" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E38" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s">
+        <v>167</v>
+      </c>
+      <c r="H38" t="s">
+        <v>168</v>
+      </c>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75">
+      <c r="A39" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G39" t="s">
+        <v>167</v>
+      </c>
+      <c r="H39" t="s">
+        <v>168</v>
+      </c>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.75">
+      <c r="A40" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" t="s">
+        <v>174</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E40" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" t="s">
+        <v>77</v>
+      </c>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75">
+      <c r="A41" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" t="s">
+        <v>77</v>
+      </c>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75">
+      <c r="A42" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>42</v>
+      </c>
+      <c r="G42" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42" t="s">
         <v>59</v>
       </c>
-      <c r="G31" t="s">
-        <v>126</v>
-      </c>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E32" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>59</v>
-      </c>
-      <c r="G32" t="s">
-        <v>126</v>
-      </c>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C33" t="s">
-        <v>147</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E33" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F33" t="s">
-        <v>59</v>
-      </c>
-      <c r="G33" t="s">
-        <v>126</v>
-      </c>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E34" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C35" t="s">
-        <v>153</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E35" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" t="s">
-        <v>27</v>
-      </c>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E36" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F36" t="s">
-        <v>100</v>
-      </c>
-      <c r="G36" t="s">
-        <v>101</v>
-      </c>
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E37" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F37" t="s">
-        <v>100</v>
-      </c>
-      <c r="G37" t="s">
-        <v>101</v>
-      </c>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C38" t="s">
-        <v>162</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E38" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F38" t="s">
-        <v>163</v>
-      </c>
-      <c r="G38" t="s">
-        <v>164</v>
-      </c>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C39" t="s">
-        <v>167</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E39" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F39" t="s">
-        <v>163</v>
-      </c>
-      <c r="G39" t="s">
-        <v>164</v>
-      </c>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75">
+      <c r="A43" t="s">
+        <v>181</v>
+      </c>
+      <c r="B43" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>183</v>
+      </c>
+      <c r="H43" t="s">
         <v>168</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C40" t="s">
-        <v>170</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E40" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G40" t="s">
-        <v>73</v>
-      </c>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C41" t="s">
-        <v>173</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E41" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G41" t="s">
-        <v>73</v>
-      </c>
-      <c r="I41" s="6"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C42" t="s">
-        <v>176</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E42" t="b">
-        <v>0</v>
-      </c>
-      <c r="F42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G42" t="s">
-        <v>55</v>
-      </c>
-      <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>177</v>
-      </c>
-      <c r="B43" t="s">
-        <v>178</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E43" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F43" t="s">
-        <v>179</v>
-      </c>
-      <c r="G43" t="s">
-        <v>164</v>
-      </c>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>181</v>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75">
+      <c r="A44" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="C44" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E44" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F44" t="s">
-        <v>183</v>
-      </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="3" t="s">
-        <v>184</v>
-      </c>
+      <c r="F44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s">
+        <v>187</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="5"/>
       <c r="K44" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.75">
+      <c r="A45" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="C45" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E45" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F45" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G45" t="s">
-        <v>189</v>
-      </c>
-      <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>191</v>
+      <c r="F45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H45" t="s">
+        <v>193</v>
+      </c>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75">
+      <c r="A46" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="C46" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E46" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F46" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G46" t="s">
-        <v>189</v>
-      </c>
-      <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="F46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H46" t="s">
         <v>193</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>194</v>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75">
+      <c r="A47" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="C47" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E47" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F47" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="G47" t="s">
-        <v>101</v>
-      </c>
-      <c r="I47" s="6"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C48" s="5" t="s">
+      <c r="F47" s="3"/>
+      <c r="G47" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="H47" t="s">
+        <v>105</v>
+      </c>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75">
+      <c r="A48" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="E48" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F48" t="s">
-        <v>201</v>
-      </c>
+      <c r="F48" s="3"/>
       <c r="G48" t="s">
-        <v>101</v>
-      </c>
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
+      </c>
+      <c r="H48" t="s">
+        <v>105</v>
+      </c>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75">
+      <c r="A49" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E49" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G49" t="s">
-        <v>205</v>
-      </c>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>207</v>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H49" t="s">
+        <v>209</v>
+      </c>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="1:12" ht="15.75">
+      <c r="A50" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="C50" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E50" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F50" t="s">
-        <v>209</v>
-      </c>
-      <c r="I50" s="6"/>
-      <c r="J50" t="s">
-        <v>86</v>
-      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" t="s">
+        <v>213</v>
+      </c>
+      <c r="J50" s="5"/>
       <c r="K50" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>210</v>
+        <v>90</v>
+      </c>
+      <c r="L50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15.75">
+      <c r="A51" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="B51" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C51" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E51" t="b">
         <v>1</v>
       </c>
-      <c r="F51" t="s">
-        <v>213</v>
-      </c>
-      <c r="J51" t="s">
-        <v>214</v>
+      <c r="G51" t="s">
+        <v>217</v>
       </c>
       <c r="K51" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
+      </c>
+      <c r="L51" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15.75">
+      <c r="A52" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="C52" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F52" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="I52" s="6"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C53" s="5" t="s">
+      <c r="F52" s="3"/>
+      <c r="G52" s="5" t="s">
         <v>223</v>
       </c>
+      <c r="H52" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="1:12" ht="15.75">
+      <c r="A53" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="D53" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E53" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F53" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="G53" t="s">
-        <v>101</v>
-      </c>
-      <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>226</v>
+      <c r="F53" s="3"/>
+      <c r="G53" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="H53" t="s">
+        <v>105</v>
+      </c>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="1:12" ht="15.75">
+      <c r="A54" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E54" t="b">
         <v>1</v>
       </c>
-      <c r="F54" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="G54" t="s">
-        <v>101</v>
-      </c>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>230</v>
+      <c r="G54" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H54" t="s">
+        <v>105</v>
+      </c>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="1:12" ht="15.75">
+      <c r="A55" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E55" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F55" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="G55" t="s">
-        <v>101</v>
-      </c>
-      <c r="I55" s="6"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>233</v>
+      <c r="F55" s="3"/>
+      <c r="G55" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="H55" t="s">
+        <v>105</v>
+      </c>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="1:12" ht="15.75">
+      <c r="A56" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E56" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="F56" s="3"/>
       <c r="G56" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="1:12" ht="15.75">
       <c r="A57" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B57" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E57" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G57" t="s">
-        <v>164</v>
-      </c>
-      <c r="I57" s="6"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F57" s="3"/>
+      <c r="G57" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H57" t="s">
+        <v>168</v>
+      </c>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="1:12" ht="15.75">
       <c r="A58" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B58" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>234</v>
-      </c>
       <c r="E58" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F58" t="s">
-        <v>72</v>
-      </c>
+      <c r="F58" s="3"/>
       <c r="G58" t="s">
-        <v>73</v>
-      </c>
-      <c r="I58" s="6"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
-        <v>240</v>
+        <v>76</v>
+      </c>
+      <c r="H58" t="s">
+        <v>77</v>
+      </c>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="1:12" ht="15.75">
+      <c r="A59" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="B59" t="s">
-        <v>241</v>
-      </c>
-      <c r="C59" s="6"/>
+        <v>245</v>
+      </c>
+      <c r="C59" s="5"/>
       <c r="D59" s="3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E59" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F59" t="s">
-        <v>100</v>
-      </c>
+      <c r="F59" s="3"/>
       <c r="G59" t="s">
-        <v>101</v>
-      </c>
-      <c r="I59" s="6"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="H59" t="s">
+        <v>105</v>
+      </c>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="1:12" ht="15.75">
       <c r="A60" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B60" t="s">
-        <v>243</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>244</v>
+        <v>247</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E60" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F60" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G60" t="s">
-        <v>27</v>
-      </c>
-      <c r="I60" s="6"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F60" s="3"/>
+      <c r="G60" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H60" t="s">
+        <v>30</v>
+      </c>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="1:12" ht="15.75">
       <c r="A61" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B61" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E61" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F61" t="s">
-        <v>59</v>
-      </c>
+      <c r="F61" s="3"/>
       <c r="G61" t="s">
-        <v>126</v>
-      </c>
-      <c r="I61" s="6"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>249</v>
+        <v>63</v>
+      </c>
+      <c r="H61" t="s">
+        <v>130</v>
+      </c>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="1:12" ht="15.75">
+      <c r="A62" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F62" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>184</v>
+      <c r="F62" s="3"/>
+      <c r="G62" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>254</v>
+        <v>188</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15.75">
+      <c r="A63" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E63" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F63" t="s">
-        <v>183</v>
-      </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="3" t="s">
-        <v>184</v>
-      </c>
+      <c r="F63" s="3"/>
+      <c r="G63" t="s">
+        <v>187</v>
+      </c>
+      <c r="I63" s="3"/>
+      <c r="J63" s="5"/>
       <c r="K63" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>257</v>
+        <v>188</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="15.75">
+      <c r="A64" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>261</v>
       </c>
       <c r="D64" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E64" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F64" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>184</v>
+      <c r="F64" s="3"/>
+      <c r="G64" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75">
       <c r="A65" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>260</v>
+        <v>263</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="D65" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E65" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="I65" s="6"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>264</v>
+      <c r="F65" s="3"/>
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="1:10" ht="15.75">
+      <c r="A66" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="D66" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E66" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="F66" t="s">
-        <v>266</v>
-      </c>
-      <c r="I66" s="6"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F66" s="3"/>
+      <c r="G66" t="s">
+        <v>270</v>
+      </c>
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="1:10" ht="15.75">
       <c r="B67" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E67" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="I67" s="6"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B68" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="I68" s="6"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I69" s="6"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I70" s="6"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I71" s="6"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I72" s="6"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I73" s="6"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I74" s="6"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I75" s="6"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I76" s="6"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I77" s="6"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I78" s="6"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I79" s="6"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I80" s="6"/>
-    </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I81" s="6"/>
-    </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I82" s="6"/>
-    </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I83" s="6"/>
-    </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I84" s="6"/>
-    </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I85" s="6"/>
-    </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I86" s="6"/>
-    </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I87" s="6"/>
-    </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I88" s="6"/>
+      <c r="F67" s="3"/>
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="1:10" ht="15.75">
+      <c r="B68" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="1:10" ht="15.75">
+      <c r="J69" s="5"/>
+    </row>
+    <row r="70" spans="1:10" ht="15.75">
+      <c r="J70" s="5"/>
+    </row>
+    <row r="71" spans="1:10" ht="15.75">
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="1:10" ht="15.75">
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="1:10" ht="15.75">
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="1:10" ht="15.75">
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="1:10" ht="15.75">
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="1:10" ht="15.75">
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="1:10" ht="15.75">
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="1:10" ht="15.75">
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="1:10" ht="15.75">
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="1:10" ht="15.75">
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="10:10" ht="15.75">
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="10:10" ht="15.75">
+      <c r="J82" s="5"/>
+    </row>
+    <row r="83" spans="10:10" ht="15.75">
+      <c r="J83" s="5"/>
+    </row>
+    <row r="84" spans="10:10" ht="15.75">
+      <c r="J84" s="5"/>
+    </row>
+    <row r="85" spans="10:10" ht="15.75">
+      <c r="J85" s="5"/>
+    </row>
+    <row r="86" spans="10:10" ht="15.75">
+      <c r="J86" s="5"/>
+    </row>
+    <row r="87" spans="10:10" ht="15.75">
+      <c r="J87" s="5"/>
+    </row>
+    <row r="88" spans="10:10" ht="15.75">
+      <c r="J88" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3282,261 +3433,261 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84BD0A89-0CDE-47BD-8484-3F8595065672}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>282</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>284</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>286</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>288</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>290</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>292</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B20" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>113</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>119</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="6"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="6"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="6"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" s="6"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="6"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42" s="6"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B43" s="6"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B44" s="6"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="5"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="5"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="5"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="5"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="5"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="5"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="5"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="5"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="5"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="5"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3547,18 +3698,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2F1225-F2EC-FC4F-A755-3C17E05D1FBC}">
   <dimension ref="B2:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <sheetData>
-    <row r="2" spans="2:17" ht="31" x14ac:dyDescent="0.35">
-      <c r="B2" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>304</v>
+    <row r="2" spans="2:17" ht="30.95">
+      <c r="B2" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -3569,26 +3720,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3a185cf8-230a-4b04-8413-a2eb38809739">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d1680238-2266-4ab1-9ebd-8eb4f05a8cbc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BB73D52B95E7674E8C041A22C3D0D1DC" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="094262c4c5b9678ec1175a30b03569fe">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3a185cf8-230a-4b04-8413-a2eb38809739" xmlns:ns3="ce8c8b47-1fde-48a4-9848-9fb6f71db919" xmlns:ns4="d1680238-2266-4ab1-9ebd-8eb4f05a8cbc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aac97373e138514f2b0e379687f4ff3e" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="3a185cf8-230a-4b04-8413-a2eb38809739"/>
@@ -3812,6 +3943,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3a185cf8-230a-4b04-8413-a2eb38809739">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d1680238-2266-4ab1-9ebd-8eb4f05a8cbc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <scriptIds xmlns="http://schemas.microsoft.com/office/extensibility/maker/v1.0" id="script-ids-node-id">
   <scriptId id="ms-officescript%3A%2F%2Fonedrive_business_itemlink%2F01OKQIAG25XXYTRFM44FB3JADRP4EPG3YA:ms-officescript%3A%2F%2Fonedrive_business_sharinglink%2Fu!aHR0cHM6Ly9wYXJ0bmVyc2hlYWx0aGNhcmUtbXkuc2hhcmVwb2ludC5jb20vOnU6L2cvcGVyc29uYWwvdGFsa2FzYWJfbWdoX2hhcnZhcmRfZWR1L0VWMjk4VGlWbk9GRHRJQnhmd2p6YndBQmNFVHpESXlqVExmLVlNUlNKcjJfdUE"/>
@@ -3819,55 +3970,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86B9F1D9-B1D9-4E3C-A775-7B77BA091D2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="3a185cf8-230a-4b04-8413-a2eb38809739"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="ce8c8b47-1fde-48a4-9848-9fb6f71db919"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d1680238-2266-4ab1-9ebd-8eb4f05a8cbc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DD57A8D-4DED-4E0F-BEB7-351C4030BEB7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B2D09EE-FFA4-4C5B-A5FE-F0D14BB95B73}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B2D09EE-FFA4-4C5B-A5FE-F0D14BB95B73}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DD57A8D-4DED-4E0F-BEB7-351C4030BEB7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3a185cf8-230a-4b04-8413-a2eb38809739"/>
-    <ds:schemaRef ds:uri="ce8c8b47-1fde-48a4-9848-9fb6f71db919"/>
-    <ds:schemaRef ds:uri="d1680238-2266-4ab1-9ebd-8eb4f05a8cbc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86B9F1D9-B1D9-4E3C-A775-7B77BA091D2A}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF091D72-B8A2-4127-9FDE-1E96FCE42B42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/extensibility/maker/v1.0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF091D72-B8A2-4127-9FDE-1E96FCE42B42}"/>
 </file>